--- a/test/demo.xlsx
+++ b/test/demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\JavaProject\erp\script\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7431988-527F-4338-B0F3-3EEAC03E4570}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106A37D3-E23F-4699-9368-83060CFA62C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SD" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="242">
   <si>
     <t>销售表主键</t>
   </si>
@@ -762,6 +762,14 @@
   </si>
   <si>
     <t>pppp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dddd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1148,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1160,6 +1168,7 @@
     <col min="5" max="5" width="42.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.25">
@@ -1510,7 +1519,9 @@
       <c r="G5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>52</v>
@@ -1970,7 +1981,9 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
+      <c r="AH11" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="AI11" s="4" t="s">
         <v>42</v>
       </c>

--- a/test/demo.xlsx
+++ b/test/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\JavaProject\erp\script\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106A37D3-E23F-4699-9368-83060CFA62C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E311763-8CB8-4DE7-A6C2-A033C5C0D1F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>客户代码</t>
   </si>
   <si>
-    <t>客户地址</t>
-  </si>
-  <si>
     <t>产品代码</t>
   </si>
   <si>
@@ -770,6 +767,10 @@
   </si>
   <si>
     <t>dddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1156,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1168,6 +1169,7 @@
     <col min="5" max="5" width="42.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1191,97 +1193,97 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
@@ -1295,28 +1297,28 @@
         <v>44214</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1326,7 +1328,7 @@
         <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T2" s="4">
         <v>80.3</v>
@@ -1348,13 +1350,13 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="AK2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
@@ -1368,28 +1370,28 @@
         <v>44214</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1399,7 +1401,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T3" s="4">
         <v>21.54</v>
@@ -1421,10 +1423,10 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
@@ -1438,28 +1440,28 @@
         <v>44214</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1469,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T4" s="4">
         <v>21.54</v>
@@ -1491,10 +1493,10 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
@@ -1508,30 +1510,30 @@
         <v>44214</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1541,7 +1543,7 @@
         <v>100</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T5" s="4">
         <v>44.28</v>
@@ -1563,10 +1565,10 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
@@ -1580,28 +1582,28 @@
         <v>44214</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1611,7 +1613,7 @@
         <v>200</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T6" s="4">
         <v>21.54</v>
@@ -1633,10 +1635,10 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
@@ -1650,28 +1652,28 @@
         <v>44214</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1681,7 +1683,7 @@
         <v>100</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T7" s="4">
         <v>44.28</v>
@@ -1703,10 +1705,10 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
@@ -1720,28 +1722,28 @@
         <v>44214</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1751,7 +1753,7 @@
         <v>200</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T8" s="4">
         <v>44.28</v>
@@ -1773,10 +1775,10 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -1790,28 +1792,28 @@
         <v>44214</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1821,7 +1823,7 @@
         <v>100</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T9" s="4">
         <v>96.77</v>
@@ -1843,10 +1845,10 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
@@ -1860,28 +1862,28 @@
         <v>44214</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1891,7 +1893,7 @@
         <v>200</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T10" s="4">
         <v>96.77</v>
@@ -1913,10 +1915,10 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
@@ -1930,28 +1932,28 @@
         <v>44214</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1961,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T11" s="4">
         <v>118.76</v>
@@ -1982,13 +1984,13 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AI11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ11" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
@@ -2002,28 +2004,28 @@
         <v>44214</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2033,7 +2035,7 @@
         <v>10</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T12" s="4">
         <v>108.29</v>
@@ -2055,10 +2057,10 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ12" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
@@ -2072,28 +2074,28 @@
         <v>44214</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2103,7 +2105,7 @@
         <v>5</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T13" s="4">
         <v>80.3</v>
@@ -2125,10 +2127,10 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ13" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
@@ -2142,28 +2144,28 @@
         <v>44214</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2173,7 +2175,7 @@
         <v>10</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T14" s="4">
         <v>44.28</v>
@@ -2195,10 +2197,10 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ14" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
@@ -2212,28 +2214,28 @@
         <v>44214</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2243,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T15" s="4">
         <v>118.76</v>
@@ -2265,10 +2267,10 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ15" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
@@ -2282,28 +2284,28 @@
         <v>44214</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -2313,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T16" s="4">
         <v>118.76</v>
@@ -2335,10 +2337,10 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ16" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
@@ -2352,28 +2354,28 @@
         <v>44214</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2383,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T17" s="4">
         <v>118.76</v>
@@ -2405,10 +2407,10 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ17" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
@@ -2422,28 +2424,28 @@
         <v>44214</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2453,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T18" s="4">
         <v>118.76</v>
@@ -2475,10 +2477,10 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ18" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
@@ -2492,28 +2494,28 @@
         <v>44214</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2523,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T19" s="4">
         <v>118.76</v>
@@ -2545,10 +2547,10 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ19" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
@@ -2562,28 +2564,28 @@
         <v>44214</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2593,7 +2595,7 @@
         <v>10</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T20" s="4">
         <v>108.29</v>
@@ -2615,10 +2617,10 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ20" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ20" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
@@ -2632,28 +2634,28 @@
         <v>44214</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2663,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T21" s="4">
         <v>108.29</v>
@@ -2685,10 +2687,10 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ21" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ21" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
@@ -2702,28 +2704,28 @@
         <v>44214</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2733,7 +2735,7 @@
         <v>10</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T22" s="4">
         <v>108.29</v>
@@ -2755,10 +2757,10 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ22" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ22" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
@@ -2772,28 +2774,28 @@
         <v>44214</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2803,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T23" s="4">
         <v>44.28</v>
@@ -2825,10 +2827,10 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ23" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ23" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
@@ -2842,28 +2844,28 @@
         <v>44214</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2873,7 +2875,7 @@
         <v>5</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T24" s="4">
         <v>44.28</v>
@@ -2895,10 +2897,10 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ24" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ24" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
@@ -2912,28 +2914,28 @@
         <v>44214</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="F25" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -2943,7 +2945,7 @@
         <v>5</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T25" s="4">
         <v>96.77</v>
@@ -2965,10 +2967,10 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ25" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ25" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
@@ -2982,28 +2984,28 @@
         <v>44214</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3013,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T26" s="4">
         <v>84.09</v>
@@ -3035,10 +3037,10 @@
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ26" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ26" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
@@ -3052,28 +3054,28 @@
         <v>44214</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -3083,7 +3085,7 @@
         <v>3</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T27" s="4">
         <v>84.09</v>
@@ -3105,10 +3107,10 @@
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ27" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ27" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
@@ -3122,28 +3124,28 @@
         <v>44214</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="F28" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -3153,7 +3155,7 @@
         <v>10</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T28" s="4">
         <v>21.54</v>
@@ -3175,10 +3177,10 @@
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ28" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ28" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
@@ -3192,28 +3194,28 @@
         <v>44214</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -3223,7 +3225,7 @@
         <v>10</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T29" s="4">
         <v>21.54</v>
@@ -3245,10 +3247,10 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ29" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ29" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
@@ -3262,28 +3264,28 @@
         <v>44214</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="G30" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -3293,7 +3295,7 @@
         <v>10</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T30" s="4">
         <v>118.76</v>
@@ -3315,10 +3317,10 @@
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ30" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ30" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
@@ -3332,28 +3334,28 @@
         <v>44214</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -3363,7 +3365,7 @@
         <v>10</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T31" s="4">
         <v>118.76</v>
@@ -3385,10 +3387,10 @@
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ31" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ31" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
@@ -3402,28 +3404,28 @@
         <v>44214</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -3433,7 +3435,7 @@
         <v>20</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T32" s="4">
         <v>108.29</v>
@@ -3455,10 +3457,10 @@
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ32" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ32" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
@@ -3472,28 +3474,28 @@
         <v>44214</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -3503,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T33" s="4">
         <v>108.29</v>
@@ -3525,10 +3527,10 @@
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ33" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ33" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
@@ -3542,28 +3544,28 @@
         <v>44214</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -3573,7 +3575,7 @@
         <v>20</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T34" s="4">
         <v>44.28</v>
@@ -3595,10 +3597,10 @@
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ34" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ34" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
@@ -3612,28 +3614,28 @@
         <v>44214</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="G35" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3643,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T35" s="4">
         <v>84.09</v>
@@ -3665,10 +3667,10 @@
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ35" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ35" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
@@ -3682,28 +3684,28 @@
         <v>44214</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -3713,7 +3715,7 @@
         <v>5</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T36" s="4">
         <v>84.09</v>
@@ -3735,10 +3737,10 @@
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ36" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ36" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
@@ -3752,28 +3754,28 @@
         <v>44214</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="G37" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -3783,7 +3785,7 @@
         <v>2</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T37" s="4">
         <v>84.09</v>
@@ -3805,10 +3807,10 @@
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ37" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ37" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
@@ -3822,28 +3824,28 @@
         <v>44214</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="G38" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -3853,7 +3855,7 @@
         <v>2</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T38" s="4">
         <v>118.76</v>
@@ -3875,10 +3877,10 @@
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ38" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ38" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
@@ -3892,28 +3894,28 @@
         <v>44214</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -3923,7 +3925,7 @@
         <v>5</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T39" s="4">
         <v>108.29</v>
@@ -3945,10 +3947,10 @@
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ39" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ39" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
@@ -3962,28 +3964,28 @@
         <v>44214</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="F40" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -3993,7 +3995,7 @@
         <v>35</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T40" s="4">
         <v>44.28</v>
@@ -4015,10 +4017,10 @@
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ40" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ40" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4049,7 +4051,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -4064,82 +4066,82 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -4153,29 +4155,29 @@
         <v>44214</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -4185,7 +4187,7 @@
         <v>5</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -4210,29 +4212,29 @@
         <v>44214</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -4242,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -4267,29 +4269,29 @@
         <v>44214</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -4299,7 +4301,7 @@
         <v>10</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -4324,29 +4326,29 @@
         <v>44214</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -4356,7 +4358,7 @@
         <v>10</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -4381,29 +4383,29 @@
         <v>44214</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -4413,7 +4415,7 @@
         <v>150</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -4438,29 +4440,29 @@
         <v>44214</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -4470,7 +4472,7 @@
         <v>150</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -4495,29 +4497,29 @@
         <v>44214</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -4527,7 +4529,7 @@
         <v>50</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
@@ -4552,29 +4554,29 @@
         <v>44214</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -4584,7 +4586,7 @@
         <v>100</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
@@ -4609,29 +4611,29 @@
         <v>44214</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -4641,7 +4643,7 @@
         <v>200</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -4666,29 +4668,29 @@
         <v>44214</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -4698,7 +4700,7 @@
         <v>100</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
@@ -4723,29 +4725,29 @@
         <v>44214</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -4755,7 +4757,7 @@
         <v>20</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
@@ -4780,29 +4782,29 @@
         <v>44214</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -4812,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
@@ -4837,29 +4839,29 @@
         <v>44214</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -4869,7 +4871,7 @@
         <v>-1</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
@@ -4894,29 +4896,29 @@
         <v>44214</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -4926,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -4951,29 +4953,29 @@
         <v>44214</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -4983,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -5008,29 +5010,29 @@
         <v>44214</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -5040,7 +5042,7 @@
         <v>-7</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -5065,29 +5067,29 @@
         <v>44214</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -5097,7 +5099,7 @@
         <v>-2</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
@@ -5122,29 +5124,29 @@
         <v>44214</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -5154,7 +5156,7 @@
         <v>3</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -5179,29 +5181,29 @@
         <v>44214</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -5211,7 +5213,7 @@
         <v>30</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
@@ -5236,29 +5238,29 @@
         <v>44214</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
@@ -5268,7 +5270,7 @@
         <v>10</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
@@ -5293,29 +5295,29 @@
         <v>44214</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -5325,7 +5327,7 @@
         <v>20</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
@@ -5350,29 +5352,29 @@
         <v>44214</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
@@ -5382,7 +5384,7 @@
         <v>20</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
@@ -5407,29 +5409,29 @@
         <v>44214</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -5439,7 +5441,7 @@
         <v>30</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
@@ -5464,29 +5466,29 @@
         <v>44214</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -5496,7 +5498,7 @@
         <v>20</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
@@ -5521,29 +5523,29 @@
         <v>44214</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -5553,7 +5555,7 @@
         <v>20</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
@@ -5578,29 +5580,29 @@
         <v>44214</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -5610,7 +5612,7 @@
         <v>10</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
@@ -5635,29 +5637,29 @@
         <v>44214</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -5667,7 +5669,7 @@
         <v>2</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
@@ -5692,29 +5694,29 @@
         <v>44214</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -5724,7 +5726,7 @@
         <v>4</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
@@ -5749,29 +5751,29 @@
         <v>44214</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -5781,7 +5783,7 @@
         <v>3</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -5806,29 +5808,29 @@
         <v>44214</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -5838,7 +5840,7 @@
         <v>5</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
@@ -5863,29 +5865,29 @@
         <v>44214</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -5895,7 +5897,7 @@
         <v>10</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
@@ -5920,29 +5922,29 @@
         <v>44214</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -5952,7 +5954,7 @@
         <v>20</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
@@ -5977,29 +5979,29 @@
         <v>44214</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -6009,7 +6011,7 @@
         <v>-10</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
@@ -6034,29 +6036,29 @@
         <v>44214</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -6066,7 +6068,7 @@
         <v>2</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
@@ -6091,29 +6093,29 @@
         <v>44214</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -6123,7 +6125,7 @@
         <v>2</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
@@ -6148,29 +6150,29 @@
         <v>44214</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -6180,7 +6182,7 @@
         <v>2</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
@@ -6205,29 +6207,29 @@
         <v>44214</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -6237,7 +6239,7 @@
         <v>5</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
@@ -6262,29 +6264,29 @@
         <v>44214</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -6294,7 +6296,7 @@
         <v>20</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
@@ -6319,29 +6321,29 @@
         <v>44214</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -6351,7 +6353,7 @@
         <v>20</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
@@ -6392,7 +6394,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -6404,73 +6406,73 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="AA1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -6481,19 +6483,19 @@
         <v>44218</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="N2" s="8">
         <v>5</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -6504,19 +6506,19 @@
         <v>44218</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="N3" s="8">
         <v>10</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -6527,19 +6529,19 @@
         <v>44218</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="N4" s="8">
         <v>10</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -6550,19 +6552,19 @@
         <v>44218</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="N5" s="8">
         <v>10</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -6573,19 +6575,19 @@
         <v>44218</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="N6" s="8">
         <v>150</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -6596,19 +6598,19 @@
         <v>44218</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="N7" s="8">
         <v>150</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -6619,19 +6621,19 @@
         <v>44218</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="N8" s="8">
         <v>50</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -6642,19 +6644,19 @@
         <v>44218</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="N9" s="8">
         <v>100</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -6665,19 +6667,19 @@
         <v>44218</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="N10" s="8">
         <v>200</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
@@ -6688,19 +6690,19 @@
         <v>44218</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="N11" s="8">
         <v>100</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -6711,19 +6713,19 @@
         <v>44218</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="N12" s="8">
         <v>20</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -6734,19 +6736,19 @@
         <v>44218</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="N13" s="8">
         <v>1</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -6757,19 +6759,19 @@
         <v>44218</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="N14" s="8">
         <v>-1</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -6780,19 +6782,19 @@
         <v>44218</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="N15" s="8">
         <v>1</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -6803,19 +6805,19 @@
         <v>44218</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="N16" s="8">
         <v>5</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -6826,19 +6828,19 @@
         <v>44218</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="N17" s="8">
         <v>-7</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -6849,19 +6851,19 @@
         <v>44218</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="N18" s="8">
         <v>-2</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -6872,19 +6874,19 @@
         <v>44218</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="N19" s="8">
         <v>3</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -6895,19 +6897,19 @@
         <v>44218</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="N20" s="8">
         <v>30</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -6918,19 +6920,19 @@
         <v>44218</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="N21" s="8">
         <v>10</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -6941,19 +6943,19 @@
         <v>44218</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="N22" s="8">
         <v>20</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -6964,19 +6966,19 @@
         <v>44218</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="N23" s="8">
         <v>20</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -6987,19 +6989,19 @@
         <v>44218</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="N24" s="8">
         <v>30</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -7010,19 +7012,19 @@
         <v>44218</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="N25" s="8">
         <v>20</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -7033,19 +7035,19 @@
         <v>44218</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="N26" s="8">
         <v>20</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -7056,19 +7058,19 @@
         <v>44218</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="N27" s="8">
         <v>10</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -7079,19 +7081,19 @@
         <v>44218</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="N28" s="8">
         <v>2</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -7102,19 +7104,19 @@
         <v>44218</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="N29" s="8">
         <v>4</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -7125,19 +7127,19 @@
         <v>44218</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="N30" s="8">
         <v>3</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -7148,19 +7150,19 @@
         <v>44218</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="N31" s="8">
         <v>5</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -7171,19 +7173,19 @@
         <v>44218</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="N32" s="8">
         <v>10</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -7194,19 +7196,19 @@
         <v>44218</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="N33" s="8">
         <v>20</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -7217,19 +7219,19 @@
         <v>44218</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="N34" s="8">
         <v>-10</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -7240,19 +7242,19 @@
         <v>44218</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="N35" s="8">
         <v>2</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -7263,19 +7265,19 @@
         <v>44218</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F36" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="N36" s="8">
         <v>2</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -7286,19 +7288,19 @@
         <v>44218</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F37" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="N37" s="8">
         <v>2</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -7309,19 +7311,19 @@
         <v>44218</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="N38" s="8">
         <v>5</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -7332,19 +7334,19 @@
         <v>44218</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="N39" s="8">
         <v>20</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -7355,19 +7357,19 @@
         <v>44218</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="N40" s="8">
         <v>20</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
